--- a/Data/Mobilitet_i_Telemark/Buss_og_ferge/Punktlighet/RTI_HIST_DETAIL_REGION_LINJE_RAWT_112025.xlsx
+++ b/Data/Mobilitet_i_Telemark/Buss_og_ferge/Punktlighet/RTI_HIST_DETAIL_REGION_LINJE_RAWT_112025.xlsx
@@ -133,13 +133,13 @@
         </is>
       </c>
       <c r="D3" s="1" t="n">
-        <v>996636.0</v>
+        <v>1006926.0</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>484111.0</v>
+        <v>487936.0</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>512525.0</v>
+        <v>518990.0</v>
       </c>
     </row>
     <row r="4">
@@ -273,13 +273,13 @@
         <v>11.0</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>237052.0</v>
+        <v>240180.0</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>117533.0</v>
+        <v>118786.0</v>
       </c>
       <c r="F10" s="3" t="n">
-        <v>119519.0</v>
+        <v>121394.0</v>
       </c>
     </row>
     <row r="11">
@@ -293,13 +293,13 @@
         <v>11.0</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>103502.0</v>
+        <v>104921.0</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>56064.0</v>
+        <v>56452.0</v>
       </c>
       <c r="F11" s="3" t="n">
-        <v>47438.0</v>
+        <v>48469.0</v>
       </c>
     </row>
     <row r="12">
@@ -313,13 +313,13 @@
         <v>11.0</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>114844.0</v>
+        <v>115906.0</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>59079.0</v>
+        <v>59258.0</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>55765.0</v>
+        <v>56648.0</v>
       </c>
     </row>
     <row r="13">
@@ -333,13 +333,13 @@
         <v>11.0</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>25912.0</v>
+        <v>26259.0</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>14707.0</v>
+        <v>14850.0</v>
       </c>
       <c r="F13" s="3" t="n">
-        <v>11205.0</v>
+        <v>11409.0</v>
       </c>
     </row>
     <row r="14">
@@ -353,13 +353,13 @@
         <v>11.0</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>41822.0</v>
+        <v>42098.0</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>25998.0</v>
+        <v>26077.0</v>
       </c>
       <c r="F14" s="3" t="n">
-        <v>15824.0</v>
+        <v>16021.0</v>
       </c>
     </row>
     <row r="15">
@@ -373,13 +373,13 @@
         <v>11.0</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>16910.0</v>
+        <v>17049.0</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>6817.0</v>
+        <v>6832.0</v>
       </c>
       <c r="F15" s="3" t="n">
-        <v>10093.0</v>
+        <v>10217.0</v>
       </c>
     </row>
     <row r="16">
@@ -393,13 +393,13 @@
         <v>11.0</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>42065.0</v>
+        <v>42570.0</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>16609.0</v>
+        <v>16642.0</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>25456.0</v>
+        <v>25928.0</v>
       </c>
     </row>
     <row r="17">
@@ -433,13 +433,13 @@
         <v>11.0</v>
       </c>
       <c r="D18" s="1" t="n">
-        <v>13871.0</v>
+        <v>14073.0</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>5312.0</v>
+        <v>5378.0</v>
       </c>
       <c r="F18" s="3" t="n">
-        <v>8559.0</v>
+        <v>8695.0</v>
       </c>
     </row>
     <row r="19">
@@ -533,13 +533,13 @@
         <v>11.0</v>
       </c>
       <c r="D23" s="1" t="n">
-        <v>8225.0</v>
+        <v>8336.0</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>4972.0</v>
+        <v>5060.0</v>
       </c>
       <c r="F23" s="3" t="n">
-        <v>3253.0</v>
+        <v>3276.0</v>
       </c>
     </row>
     <row r="24">
@@ -953,13 +953,13 @@
         <v>11.0</v>
       </c>
       <c r="D44" s="1" t="n">
-        <v>3545.0</v>
+        <v>3756.0</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>1800.0</v>
+        <v>1947.0</v>
       </c>
       <c r="F44" s="3" t="n">
-        <v>1745.0</v>
+        <v>1809.0</v>
       </c>
     </row>
     <row r="45">
@@ -1093,13 +1093,13 @@
         <v>11.0</v>
       </c>
       <c r="D51" s="1" t="n">
-        <v>61279.0</v>
+        <v>61924.0</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>36046.0</v>
+        <v>36374.0</v>
       </c>
       <c r="F51" s="3" t="n">
-        <v>25233.0</v>
+        <v>25550.0</v>
       </c>
     </row>
     <row r="52">
@@ -1113,13 +1113,13 @@
         <v>11.0</v>
       </c>
       <c r="D52" s="1" t="n">
-        <v>25291.0</v>
+        <v>25890.0</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>14895.0</v>
+        <v>15255.0</v>
       </c>
       <c r="F52" s="3" t="n">
-        <v>10396.0</v>
+        <v>10635.0</v>
       </c>
     </row>
     <row r="53">
@@ -1313,13 +1313,13 @@
         <v>11.0</v>
       </c>
       <c r="D62" s="1" t="n">
-        <v>19340.0</v>
+        <v>19606.0</v>
       </c>
       <c r="E62" s="2" t="n">
-        <v>6784.0</v>
+        <v>6972.0</v>
       </c>
       <c r="F62" s="3" t="n">
-        <v>12556.0</v>
+        <v>12634.0</v>
       </c>
     </row>
     <row r="63">
@@ -1593,13 +1593,13 @@
         <v>11.0</v>
       </c>
       <c r="D76" s="1" t="n">
-        <v>7780.0</v>
+        <v>7901.0</v>
       </c>
       <c r="E76" s="2" t="n">
-        <v>4353.0</v>
+        <v>4438.0</v>
       </c>
       <c r="F76" s="3" t="n">
-        <v>3427.0</v>
+        <v>3463.0</v>
       </c>
     </row>
     <row r="77">
@@ -1613,13 +1613,13 @@
         <v>11.0</v>
       </c>
       <c r="D77" s="1" t="n">
-        <v>1362.0</v>
+        <v>1428.0</v>
       </c>
       <c r="E77" s="2" t="n">
-        <v>445.0</v>
+        <v>449.0</v>
       </c>
       <c r="F77" s="3" t="n">
-        <v>917.0</v>
+        <v>979.0</v>
       </c>
     </row>
     <row r="78">
@@ -1713,13 +1713,13 @@
         <v>11.0</v>
       </c>
       <c r="D82" s="1" t="n">
-        <v>13808.0</v>
+        <v>14326.0</v>
       </c>
       <c r="E82" s="2" t="n">
-        <v>2788.0</v>
+        <v>2825.0</v>
       </c>
       <c r="F82" s="3" t="n">
-        <v>11020.0</v>
+        <v>11501.0</v>
       </c>
     </row>
     <row r="83">
@@ -2355,13 +2355,13 @@
         <v>11.0</v>
       </c>
       <c r="D114" s="1" t="n">
-        <v>2955.0</v>
+        <v>3359.0</v>
       </c>
       <c r="E114" s="2" t="n">
-        <v>1227.0</v>
+        <v>1502.0</v>
       </c>
       <c r="F114" s="3" t="n">
-        <v>1728.0</v>
+        <v>1857.0</v>
       </c>
     </row>
     <row r="115">
@@ -2375,13 +2375,13 @@
         <v>11.0</v>
       </c>
       <c r="D115" s="1" t="n">
-        <v>1344.0</v>
+        <v>1500.0</v>
       </c>
       <c r="E115" s="2" t="n">
-        <v>370.0</v>
+        <v>447.0</v>
       </c>
       <c r="F115" s="3" t="n">
-        <v>974.0</v>
+        <v>1053.0</v>
       </c>
     </row>
     <row r="116">
@@ -2395,13 +2395,13 @@
         <v>11.0</v>
       </c>
       <c r="D116" s="1" t="n">
-        <v>941.0</v>
+        <v>1056.0</v>
       </c>
       <c r="E116" s="2" t="n">
-        <v>317.0</v>
+        <v>397.0</v>
       </c>
       <c r="F116" s="3" t="n">
-        <v>624.0</v>
+        <v>659.0</v>
       </c>
     </row>
   </sheetData>
